--- a/Clase_10/Pronostico_ARIMA.xlsx
+++ b/Clase_10/Pronostico_ARIMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo-2023/Clase_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D0070-A2A3-704C-A0A4-DAA33CDD9D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9741D-7DB2-7E43-B190-8FC0E686D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A272" sqref="A272:A295"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A283" sqref="A283:A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2430,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685767</v>
+        <v>2747947</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2214034</v>
+        <v>2250155</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162379</v>
+        <v>3215499</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3452944</v>
+        <v>3523462</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3784266</v>
+        <v>3868612</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3791459</v>
+        <v>3885189</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,7 +2478,7 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4352913</v>
+        <v>4446637</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2486,7 +2486,7 @@
         <v>44409</v>
       </c>
       <c r="B261">
-        <v>3961404</v>
+        <v>4061957</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>44440</v>
       </c>
       <c r="B262">
-        <v>3577845</v>
+        <v>3653971</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>4118307</v>
+        <v>4204904</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -2510,7 +2510,7 @@
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>4313721</v>
+        <v>4395259</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -2518,7 +2518,7 @@
         <v>44531</v>
       </c>
       <c r="B265">
-        <v>4681213</v>
+        <v>4768202</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,7 +2526,7 @@
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>3767905</v>
+        <v>3854676</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -2534,7 +2534,7 @@
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>3535885</v>
+        <v>3612447</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>4438186</v>
+        <v>4549465</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>4701502</v>
+        <v>4778420</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>4424819</v>
+        <v>4908699</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,90 +2566,123 @@
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>4224212</v>
+        <v>4701641</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44743</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>5372852</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44774</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>5261481</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44805</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>4704494</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44835</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>5162631</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44866</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>5183061</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44896</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>5456045</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44927</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>5058367</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44958</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>4515723</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44986</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>5287795</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>45017</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>5428414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>45047</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>5351191</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45078</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45108</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45139</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45170</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45200</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45231</v>
       </c>
@@ -2687,6 +2720,61 @@
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45444</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>45778</v>
       </c>
     </row>
   </sheetData>
